--- a/_resource/excel/S-商店-玩家属性-(框架维护,请勿修改).xlsx
+++ b/_resource/excel/S-商店-玩家属性-(框架维护,请勿修改).xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" iterate="1" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="103">
   <si>
     <t>LuaFile(string)</t>
   </si>
@@ -274,14 +274,6 @@
   </si>
   <si>
     <t>RunParam(string)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否创建</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Create(int)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -444,6 +436,22 @@
   </si>
   <si>
     <t>index</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端属性</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Client(int)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否屏蔽创建</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shield(int)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1048,10 +1056,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK15"/>
+  <dimension ref="A1:AL15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1081,17 +1089,18 @@
     <col min="29" max="29" width="14.875" style="7" customWidth="1"/>
     <col min="30" max="31" width="11.5" style="7" customWidth="1"/>
     <col min="32" max="32" width="10.875" style="7" customWidth="1"/>
-    <col min="33" max="33" width="9.375" style="7" customWidth="1"/>
-    <col min="34" max="34" width="17.125" style="7" customWidth="1"/>
-    <col min="35" max="35" width="21.5" style="7" customWidth="1"/>
-    <col min="36" max="36" width="24.875" style="7" customWidth="1"/>
-    <col min="37" max="37" width="28.75" style="7" customWidth="1"/>
+    <col min="33" max="33" width="12.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.375" style="7" customWidth="1"/>
+    <col min="35" max="35" width="17.125" style="7" customWidth="1"/>
+    <col min="36" max="36" width="21.5" style="7" customWidth="1"/>
+    <col min="37" max="37" width="24.875" style="7" customWidth="1"/>
+    <col min="38" max="38" width="28.75" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A1" s="9"/>
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
@@ -1127,9 +1136,10 @@
       <c r="AH1" s="9"/>
       <c r="AI1" s="9"/>
       <c r="AJ1" s="9"/>
-      <c r="AK1" s="1"/>
+      <c r="AK1" s="9"/>
+      <c r="AL1" s="1"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A2" s="8"/>
       <c r="B2" s="8" t="s">
         <v>1</v>
@@ -1174,7 +1184,7 @@
         <v>11</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="Q2" s="8" t="s">
         <v>61</v>
@@ -1224,23 +1234,26 @@
       <c r="AF2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AG2" s="8" t="s">
+      <c r="AG2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AH2" s="8" t="s">
+      <c r="AI2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AI2" s="8" t="s">
+      <c r="AJ2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="AJ2" s="8" t="s">
+      <c r="AK2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A3" s="10">
         <v>0</v>
       </c>
@@ -1349,11 +1362,14 @@
       <c r="AJ3" s="10">
         <v>3</v>
       </c>
-      <c r="AK3" s="3">
+      <c r="AK3" s="10">
+        <v>3</v>
+      </c>
+      <c r="AL3" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
         <v>28</v>
       </c>
@@ -1400,7 +1416,7 @@
         <v>69</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="Q4" s="11" t="s">
         <v>39</v>
@@ -1450,38 +1466,41 @@
       <c r="AF4" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="AG4" s="11" t="s">
-        <v>0</v>
+      <c r="AG4" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="AH4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="AI4" s="11" t="s">
+      <c r="AJ4" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="AJ4" s="11" t="s">
+      <c r="AK4" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="AK4" s="4" t="s">
+      <c r="AL4" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>57</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>56</v>
@@ -1490,7 +1509,7 @@
         <v>56</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
@@ -1499,7 +1518,7 @@
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
       <c r="P5" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="12">
         <v>0</v>
@@ -1549,31 +1568,34 @@
       <c r="AF5" s="12">
         <v>0</v>
       </c>
-      <c r="AG5" s="12"/>
+      <c r="AG5" s="12">
+        <v>0</v>
+      </c>
       <c r="AH5" s="12"/>
       <c r="AI5" s="12"/>
       <c r="AJ5" s="12"/>
-      <c r="AK5" s="5"/>
+      <c r="AK5" s="12"/>
+      <c r="AL5" s="5"/>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>57</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>56</v>
@@ -1586,7 +1608,7 @@
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
       <c r="P6" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="12">
         <v>0</v>
@@ -1636,25 +1658,28 @@
       <c r="AF6" s="12">
         <v>0</v>
       </c>
-      <c r="AG6" s="12"/>
+      <c r="AG6" s="12">
+        <v>0</v>
+      </c>
       <c r="AH6" s="12"/>
       <c r="AI6" s="12"/>
       <c r="AJ6" s="12"/>
-      <c r="AK6" s="5"/>
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="5"/>
     </row>
-    <row r="7" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:38" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>56</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
@@ -1667,7 +1692,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="15"/>
       <c r="P7" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="15">
         <v>0</v>
@@ -1717,25 +1742,28 @@
       <c r="AF7" s="15">
         <v>0</v>
       </c>
-      <c r="AG7" s="15"/>
+      <c r="AG7" s="15">
+        <v>0</v>
+      </c>
       <c r="AH7" s="15"/>
       <c r="AI7" s="15"/>
       <c r="AJ7" s="15"/>
-      <c r="AK7" s="17"/>
+      <c r="AK7" s="15"/>
+      <c r="AL7" s="17"/>
     </row>
-    <row r="8" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:38" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B8" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>80</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>82</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
@@ -1748,7 +1776,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="15"/>
       <c r="P8" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="15">
         <v>0</v>
@@ -1798,25 +1826,28 @@
       <c r="AF8" s="15">
         <v>0</v>
       </c>
-      <c r="AG8" s="15"/>
+      <c r="AG8" s="15">
+        <v>0</v>
+      </c>
       <c r="AH8" s="15"/>
       <c r="AI8" s="15"/>
       <c r="AJ8" s="15"/>
-      <c r="AK8" s="17"/>
+      <c r="AK8" s="15"/>
+      <c r="AL8" s="17"/>
     </row>
-    <row r="9" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:38" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
@@ -1829,7 +1860,7 @@
       <c r="N9" s="13"/>
       <c r="O9" s="13"/>
       <c r="P9" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="13">
         <v>0</v>
@@ -1879,25 +1910,28 @@
       <c r="AF9" s="13">
         <v>0</v>
       </c>
-      <c r="AG9" s="13"/>
+      <c r="AG9" s="13">
+        <v>0</v>
+      </c>
       <c r="AH9" s="13"/>
       <c r="AI9" s="13"/>
       <c r="AJ9" s="13"/>
-      <c r="AK9" s="6"/>
+      <c r="AK9" s="13"/>
+      <c r="AL9" s="6"/>
     </row>
-    <row r="10" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:38" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
@@ -1910,7 +1944,7 @@
       <c r="N10" s="13"/>
       <c r="O10" s="13"/>
       <c r="P10" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="13">
         <v>0</v>
@@ -1960,25 +1994,28 @@
       <c r="AF10" s="13">
         <v>0</v>
       </c>
-      <c r="AG10" s="13"/>
+      <c r="AG10" s="13">
+        <v>0</v>
+      </c>
       <c r="AH10" s="13"/>
       <c r="AI10" s="13"/>
       <c r="AJ10" s="13"/>
-      <c r="AK10" s="6"/>
+      <c r="AK10" s="13"/>
+      <c r="AL10" s="6"/>
     </row>
-    <row r="11" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:38" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
@@ -1991,7 +2028,7 @@
       <c r="N11" s="13"/>
       <c r="O11" s="13"/>
       <c r="P11" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="13">
         <v>0</v>
@@ -2041,31 +2078,34 @@
       <c r="AF11" s="13">
         <v>0</v>
       </c>
-      <c r="AG11" s="13"/>
+      <c r="AG11" s="13">
+        <v>0</v>
+      </c>
       <c r="AH11" s="13"/>
       <c r="AI11" s="13"/>
       <c r="AJ11" s="13"/>
-      <c r="AK11" s="6"/>
+      <c r="AK11" s="13"/>
+      <c r="AL11" s="6"/>
     </row>
-    <row r="12" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:38" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="F12" s="19" t="s">
-        <v>96</v>
-      </c>
       <c r="G12" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
@@ -2076,7 +2116,7 @@
       <c r="N12" s="13"/>
       <c r="O12" s="13"/>
       <c r="P12" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="13">
         <v>0</v>
@@ -2126,25 +2166,28 @@
       <c r="AF12" s="13">
         <v>0</v>
       </c>
-      <c r="AG12" s="13"/>
+      <c r="AG12" s="13">
+        <v>0</v>
+      </c>
       <c r="AH12" s="13"/>
       <c r="AI12" s="13"/>
       <c r="AJ12" s="13"/>
-      <c r="AK12" s="6"/>
+      <c r="AK12" s="13"/>
+      <c r="AL12" s="6"/>
     </row>
-    <row r="13" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:38" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>99</v>
-      </c>
       <c r="C13" s="16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
@@ -2157,7 +2200,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="15"/>
       <c r="P13" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="15">
         <v>0</v>
@@ -2207,25 +2250,28 @@
       <c r="AF13" s="15">
         <v>0</v>
       </c>
-      <c r="AG13" s="15"/>
+      <c r="AG13" s="15">
+        <v>0</v>
+      </c>
       <c r="AH13" s="15"/>
       <c r="AI13" s="15"/>
       <c r="AJ13" s="15"/>
-      <c r="AK13" s="17"/>
+      <c r="AK13" s="15"/>
+      <c r="AL13" s="17"/>
     </row>
-    <row r="14" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:38" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>56</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
@@ -2238,7 +2284,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="15"/>
       <c r="P14" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="15">
         <v>0</v>
@@ -2288,25 +2334,28 @@
       <c r="AF14" s="15">
         <v>0</v>
       </c>
-      <c r="AG14" s="15"/>
+      <c r="AG14" s="15">
+        <v>0</v>
+      </c>
       <c r="AH14" s="15"/>
       <c r="AI14" s="15"/>
       <c r="AJ14" s="15"/>
-      <c r="AK14" s="17"/>
+      <c r="AK14" s="15"/>
+      <c r="AL14" s="17"/>
     </row>
-    <row r="15" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:38" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
@@ -2319,7 +2368,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="15"/>
       <c r="P15" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="15">
         <v>0</v>
@@ -2369,11 +2418,14 @@
       <c r="AF15" s="15">
         <v>0</v>
       </c>
-      <c r="AG15" s="15"/>
+      <c r="AG15" s="15">
+        <v>0</v>
+      </c>
       <c r="AH15" s="15"/>
       <c r="AI15" s="15"/>
       <c r="AJ15" s="15"/>
-      <c r="AK15" s="17"/>
+      <c r="AK15" s="15"/>
+      <c r="AL15" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/_resource/excel/S-商店-玩家属性-(框架维护,请勿修改).xlsx
+++ b/_resource/excel/S-商店-玩家属性-(框架维护,请勿修改).xlsx
@@ -254,9 +254,6 @@
     <t>LogicName(string)</t>
   </si>
   <si>
-    <t>Group(int)</t>
-  </si>
-  <si>
     <t>基础属性</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -452,6 +449,32 @@
   </si>
   <si>
     <t>Shield(int)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>eam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(int)</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1058,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1100,7 +1123,7 @@
     <row r="1" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A1" s="9"/>
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
@@ -1178,13 +1201,13 @@
         <v>10</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O2" s="8" t="s">
         <v>11</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q2" s="8" t="s">
         <v>61</v>
@@ -1220,7 +1243,7 @@
         <v>21</v>
       </c>
       <c r="AB2" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AC2" s="8" t="s">
         <v>22</v>
@@ -1235,7 +1258,7 @@
         <v>25</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AH2" s="8" t="s">
         <v>26</v>
@@ -1410,13 +1433,13 @@
         <v>38</v>
       </c>
       <c r="N4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="O4" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="P4" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q4" s="11" t="s">
         <v>39</v>
@@ -1452,13 +1475,13 @@
         <v>49</v>
       </c>
       <c r="AB4" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AC4" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AD4" s="11" t="s">
-        <v>64</v>
+      <c r="AD4" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="AE4" s="11" t="s">
         <v>51</v>
@@ -1467,7 +1490,7 @@
         <v>52</v>
       </c>
       <c r="AG4" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AH4" s="11" t="s">
         <v>0</v>
@@ -1487,20 +1510,20 @@
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>57</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>56</v>
@@ -1509,7 +1532,7 @@
         <v>56</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
@@ -1579,23 +1602,23 @@
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>57</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12" t="s">
         <v>58</v>
       </c>
       <c r="F6" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>56</v>
@@ -1669,17 +1692,17 @@
     </row>
     <row r="7" spans="1:38" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>56</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
@@ -1753,17 +1776,17 @@
     </row>
     <row r="8" spans="1:38" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
@@ -1837,17 +1860,17 @@
     </row>
     <row r="9" spans="1:38" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
@@ -1921,17 +1944,17 @@
     </row>
     <row r="10" spans="1:38" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>85</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>86</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
@@ -2005,17 +2028,17 @@
     </row>
     <row r="11" spans="1:38" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="19" t="s">
         <v>88</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>89</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
@@ -2089,23 +2112,23 @@
     </row>
     <row r="12" spans="1:38" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
@@ -2177,17 +2200,17 @@
     </row>
     <row r="13" spans="1:38" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>95</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>96</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
@@ -2261,17 +2284,17 @@
     </row>
     <row r="14" spans="1:38" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>56</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
@@ -2345,17 +2368,17 @@
     </row>
     <row r="15" spans="1:38" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>

--- a/_resource/excel/S-商店-玩家属性-(框架维护,请勿修改).xlsx
+++ b/_resource/excel/S-商店-玩家属性-(框架维护,请勿修改).xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="105">
   <si>
     <t>LuaFile(string)</t>
   </si>
@@ -111,9 +111,6 @@
   </si>
   <si>
     <t>同步客户端</t>
-  </si>
-  <si>
-    <t>延迟同步客户端</t>
   </si>
   <si>
     <t>同步查询者</t>
@@ -475,6 +472,18 @@
       </rPr>
       <t>(int)</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求同步</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>延迟同步时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Request(int)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1079,10 +1088,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL15"/>
+  <dimension ref="A1:AM15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD4" sqref="AD4"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1:V1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1104,26 +1113,26 @@
     <col min="20" max="20" width="17.125" style="7" customWidth="1"/>
     <col min="21" max="21" width="11" style="7" customWidth="1"/>
     <col min="22" max="22" width="12.875" style="7" customWidth="1"/>
-    <col min="23" max="23" width="15" style="7" customWidth="1"/>
-    <col min="24" max="24" width="11" style="7" customWidth="1"/>
-    <col min="25" max="25" width="13.75" style="7" customWidth="1"/>
-    <col min="26" max="27" width="17.125" style="7" customWidth="1"/>
-    <col min="28" max="28" width="12.625" style="7" customWidth="1"/>
-    <col min="29" max="29" width="14.875" style="7" customWidth="1"/>
-    <col min="30" max="31" width="11.5" style="7" customWidth="1"/>
-    <col min="32" max="32" width="10.875" style="7" customWidth="1"/>
-    <col min="33" max="33" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.375" style="7" customWidth="1"/>
-    <col min="35" max="35" width="17.125" style="7" customWidth="1"/>
-    <col min="36" max="36" width="21.5" style="7" customWidth="1"/>
-    <col min="37" max="37" width="24.875" style="7" customWidth="1"/>
-    <col min="38" max="38" width="28.75" style="7" customWidth="1"/>
+    <col min="23" max="24" width="15" style="7" customWidth="1"/>
+    <col min="25" max="25" width="11" style="7" customWidth="1"/>
+    <col min="26" max="26" width="13.75" style="7" customWidth="1"/>
+    <col min="27" max="28" width="17.125" style="7" customWidth="1"/>
+    <col min="29" max="29" width="12.625" style="7" customWidth="1"/>
+    <col min="30" max="30" width="14.875" style="7" customWidth="1"/>
+    <col min="31" max="32" width="11.5" style="7" customWidth="1"/>
+    <col min="33" max="33" width="10.875" style="7" customWidth="1"/>
+    <col min="34" max="34" width="12.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.375" style="7" customWidth="1"/>
+    <col min="36" max="36" width="17.125" style="7" customWidth="1"/>
+    <col min="37" max="37" width="21.5" style="7" customWidth="1"/>
+    <col min="38" max="38" width="24.875" style="7" customWidth="1"/>
+    <col min="39" max="39" width="28.75" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A1" s="9"/>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
@@ -1160,9 +1169,10 @@
       <c r="AI1" s="9"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
-      <c r="AL1" s="1"/>
+      <c r="AL1" s="9"/>
+      <c r="AM1" s="1"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A2" s="8"/>
       <c r="B2" s="8" t="s">
         <v>1</v>
@@ -1171,7 +1181,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>3</v>
@@ -1186,7 +1196,7 @@
         <v>6</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>7</v>
@@ -1201,16 +1211,16 @@
         <v>10</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O2" s="8" t="s">
         <v>11</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R2" s="8" t="s">
         <v>12</v>
@@ -1227,56 +1237,59 @@
       <c r="V2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="W2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="Z2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="AA2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="AB2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="AC2" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="AB2" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AE2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="AD2" s="8" t="s">
+      <c r="AF2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="AE2" s="8" t="s">
+      <c r="AG2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="AF2" s="8" t="s">
+      <c r="AH2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AG2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH2" s="8" t="s">
+      <c r="AJ2" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="AI2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="AJ2" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="AK2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="AL2" s="2" t="s">
-        <v>20</v>
+      <c r="AL2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A3" s="10">
         <v>0</v>
       </c>
@@ -1350,7 +1363,7 @@
         <v>3</v>
       </c>
       <c r="Y3" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z3" s="10">
         <v>1</v>
@@ -1359,7 +1372,7 @@
         <v>1</v>
       </c>
       <c r="AB3" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC3" s="10">
         <v>3</v>
@@ -1388,151 +1401,157 @@
       <c r="AK3" s="10">
         <v>3</v>
       </c>
-      <c r="AL3" s="3">
+      <c r="AL3" s="10">
+        <v>3</v>
+      </c>
+      <c r="AM3" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="D4" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="E4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="11" t="s">
+      <c r="F4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="G4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="H4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="I4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="J4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="K4" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="L4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="M4" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="N4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="O4" s="4" t="s">
+      <c r="R4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="S4" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="U4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="V4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="W4" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y4" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z4" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA4" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC4" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE4" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG4" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK4" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL4" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM4" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="P4" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q4" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="S4" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="T4" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="U4" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="V4" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="W4" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="X4" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y4" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z4" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA4" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB4" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC4" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD4" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE4" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF4" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG4" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH4" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ4" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK4" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL4" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>69</v>
-      </c>
       <c r="B5" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
@@ -1594,34 +1613,37 @@
       <c r="AG5" s="12">
         <v>0</v>
       </c>
-      <c r="AH5" s="12"/>
+      <c r="AH5" s="12">
+        <v>0</v>
+      </c>
       <c r="AI5" s="12"/>
       <c r="AJ5" s="12"/>
       <c r="AK5" s="12"/>
-      <c r="AL5" s="5"/>
+      <c r="AL5" s="12"/>
+      <c r="AM5" s="5"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F6" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>76</v>
-      </c>
       <c r="H6" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
@@ -1684,25 +1706,28 @@
       <c r="AG6" s="12">
         <v>0</v>
       </c>
-      <c r="AH6" s="12"/>
+      <c r="AH6" s="12">
+        <v>0</v>
+      </c>
       <c r="AI6" s="12"/>
       <c r="AJ6" s="12"/>
       <c r="AK6" s="12"/>
-      <c r="AL6" s="5"/>
+      <c r="AL6" s="12"/>
+      <c r="AM6" s="5"/>
     </row>
-    <row r="7" spans="1:38" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:39" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
@@ -1768,25 +1793,28 @@
       <c r="AG7" s="15">
         <v>0</v>
       </c>
-      <c r="AH7" s="15"/>
+      <c r="AH7" s="15">
+        <v>0</v>
+      </c>
       <c r="AI7" s="15"/>
       <c r="AJ7" s="15"/>
       <c r="AK7" s="15"/>
-      <c r="AL7" s="17"/>
+      <c r="AL7" s="15"/>
+      <c r="AM7" s="17"/>
     </row>
-    <row r="8" spans="1:38" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:39" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
@@ -1852,25 +1880,28 @@
       <c r="AG8" s="15">
         <v>0</v>
       </c>
-      <c r="AH8" s="15"/>
+      <c r="AH8" s="15">
+        <v>0</v>
+      </c>
       <c r="AI8" s="15"/>
       <c r="AJ8" s="15"/>
       <c r="AK8" s="15"/>
-      <c r="AL8" s="17"/>
+      <c r="AL8" s="15"/>
+      <c r="AM8" s="17"/>
     </row>
-    <row r="9" spans="1:38" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
@@ -1936,25 +1967,28 @@
       <c r="AG9" s="13">
         <v>0</v>
       </c>
-      <c r="AH9" s="13"/>
+      <c r="AH9" s="13">
+        <v>0</v>
+      </c>
       <c r="AI9" s="13"/>
       <c r="AJ9" s="13"/>
       <c r="AK9" s="13"/>
-      <c r="AL9" s="6"/>
+      <c r="AL9" s="13"/>
+      <c r="AM9" s="6"/>
     </row>
-    <row r="10" spans="1:38" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>84</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>85</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
@@ -2020,25 +2054,28 @@
       <c r="AG10" s="13">
         <v>0</v>
       </c>
-      <c r="AH10" s="13"/>
+      <c r="AH10" s="13">
+        <v>0</v>
+      </c>
       <c r="AI10" s="13"/>
       <c r="AJ10" s="13"/>
       <c r="AK10" s="13"/>
-      <c r="AL10" s="6"/>
+      <c r="AL10" s="13"/>
+      <c r="AM10" s="6"/>
     </row>
-    <row r="11" spans="1:38" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="19" t="s">
         <v>87</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>88</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
@@ -2104,31 +2141,34 @@
       <c r="AG11" s="13">
         <v>0</v>
       </c>
-      <c r="AH11" s="13"/>
+      <c r="AH11" s="13">
+        <v>0</v>
+      </c>
       <c r="AI11" s="13"/>
       <c r="AJ11" s="13"/>
       <c r="AK11" s="13"/>
-      <c r="AL11" s="6"/>
+      <c r="AL11" s="13"/>
+      <c r="AM11" s="6"/>
     </row>
-    <row r="12" spans="1:38" s="14" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:39" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
@@ -2192,25 +2232,28 @@
       <c r="AG12" s="13">
         <v>0</v>
       </c>
-      <c r="AH12" s="13"/>
+      <c r="AH12" s="13">
+        <v>0</v>
+      </c>
       <c r="AI12" s="13"/>
       <c r="AJ12" s="13"/>
       <c r="AK12" s="13"/>
-      <c r="AL12" s="6"/>
+      <c r="AL12" s="13"/>
+      <c r="AM12" s="6"/>
     </row>
-    <row r="13" spans="1:38" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:39" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>94</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>95</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
@@ -2276,25 +2319,28 @@
       <c r="AG13" s="15">
         <v>0</v>
       </c>
-      <c r="AH13" s="15"/>
+      <c r="AH13" s="15">
+        <v>0</v>
+      </c>
       <c r="AI13" s="15"/>
       <c r="AJ13" s="15"/>
       <c r="AK13" s="15"/>
-      <c r="AL13" s="17"/>
+      <c r="AL13" s="15"/>
+      <c r="AM13" s="17"/>
     </row>
-    <row r="14" spans="1:38" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:39" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
@@ -2360,25 +2406,28 @@
       <c r="AG14" s="15">
         <v>0</v>
       </c>
-      <c r="AH14" s="15"/>
+      <c r="AH14" s="15">
+        <v>0</v>
+      </c>
       <c r="AI14" s="15"/>
       <c r="AJ14" s="15"/>
       <c r="AK14" s="15"/>
-      <c r="AL14" s="17"/>
+      <c r="AL14" s="15"/>
+      <c r="AM14" s="17"/>
     </row>
-    <row r="15" spans="1:38" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:39" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
@@ -2444,11 +2493,14 @@
       <c r="AG15" s="15">
         <v>0</v>
       </c>
-      <c r="AH15" s="15"/>
+      <c r="AH15" s="15">
+        <v>0</v>
+      </c>
       <c r="AI15" s="15"/>
       <c r="AJ15" s="15"/>
       <c r="AK15" s="15"/>
-      <c r="AL15" s="17"/>
+      <c r="AL15" s="15"/>
+      <c r="AM15" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
